--- a/data/output/BDA6_SCHULE_Gemeinden_LU_Klass_Std.xlsx
+++ b/data/output/BDA6_SCHULE_Gemeinden_LU_Klass_Std.xlsx
@@ -45,10 +45,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -66,14 +66,16 @@
     <col min="3" max="3" width="21.4609375" customWidth="true"/>
     <col min="4" max="4" width="24.0703125" customWidth="true"/>
     <col min="5" max="5" width="18.234375" customWidth="true"/>
-    <col min="6" max="6" width="14.625" customWidth="true"/>
-    <col min="7" max="7" width="19.44140625" customWidth="true"/>
-    <col min="8" max="8" width="19.984375" customWidth="true"/>
-    <col min="9" max="9" width="20.33984375" customWidth="true"/>
-    <col min="10" max="10" width="16.6875" customWidth="true"/>
-    <col min="11" max="11" width="22.34765625" customWidth="true"/>
-    <col min="12" max="12" width="18.01171875" customWidth="true"/>
-    <col min="13" max="13" width="15.41015625" customWidth="true"/>
+    <col min="6" max="6" width="11.765625" customWidth="true"/>
+    <col min="7" max="7" width="33.765625" customWidth="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true"/>
+    <col min="9" max="9" width="19.44140625" customWidth="true"/>
+    <col min="10" max="10" width="19.984375" customWidth="true"/>
+    <col min="11" max="11" width="20.33984375" customWidth="true"/>
+    <col min="12" max="12" width="16.6875" customWidth="true"/>
+    <col min="13" max="13" width="22.34765625" customWidth="true"/>
+    <col min="14" max="14" width="18.01171875" customWidth="true"/>
+    <col min="15" max="15" width="15.41015625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -104,40 +106,50 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>RegionCode</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RegionName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>BRank_Gesamt</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>BRank_Arbeitsmarkt</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>BRank_Bevoelkerung</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>BRank_Erreichbarkeit</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>BRank_Sicherheit</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>BRank_Steuerbelastung</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>BRank_Versorgung</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>BRank_Wohnen</t>
         </is>
@@ -168,25 +180,33 @@
       <c r="F2" t="n">
         <v>2.0</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
         <v>3.0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -213,10 +233,12 @@
         <v>1021.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>3.0</v>
@@ -234,6 +256,12 @@
         <v>3.0</v>
       </c>
       <c r="M3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -260,10 +288,12 @@
         <v>1121.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>3.0</v>
@@ -281,6 +311,12 @@
         <v>3.0</v>
       </c>
       <c r="M4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -307,10 +343,12 @@
         <v>1122.0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>3.0</v>
@@ -328,6 +366,12 @@
         <v>3.0</v>
       </c>
       <c r="M5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O5" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -354,10 +398,12 @@
         <v>1123.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>3.0</v>
@@ -375,6 +421,12 @@
         <v>3.0</v>
       </c>
       <c r="M6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -401,10 +453,12 @@
         <v>1022.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -422,6 +476,12 @@
         <v>3.0</v>
       </c>
       <c r="M7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -448,27 +508,35 @@
         <v>1023.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O8" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -495,27 +563,35 @@
         <v>1081.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -542,27 +618,35 @@
         <v>1081.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -591,25 +675,33 @@
       <c r="F11" t="n">
         <v>2.0</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -636,27 +728,35 @@
         <v>1083.0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O12" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -683,27 +783,35 @@
         <v>1082.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I13" t="n">
         <v>5.0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -730,27 +838,35 @@
         <v>1125.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O14" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -777,10 +893,12 @@
         <v>1053.0</v>
       </c>
       <c r="F15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>3.0</v>
@@ -798,6 +916,12 @@
         <v>3.0</v>
       </c>
       <c r="M15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O15" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -824,10 +948,12 @@
         <v>1001.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>3.0</v>
@@ -845,6 +971,12 @@
         <v>3.0</v>
       </c>
       <c r="M16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O16" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -871,10 +1003,12 @@
         <v>1126.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>3.0</v>
@@ -892,6 +1026,12 @@
         <v>3.0</v>
       </c>
       <c r="M17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O17" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -920,25 +1060,33 @@
       <c r="F18" t="n">
         <v>2.0</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.0</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K18" t="n">
         <v>2.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O18" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -965,10 +1113,12 @@
         <v>1127.0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>3.0</v>
@@ -986,6 +1136,12 @@
         <v>3.0</v>
       </c>
       <c r="M19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1012,10 +1168,12 @@
         <v>1084.0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>3.0</v>
@@ -1033,6 +1191,12 @@
         <v>3.0</v>
       </c>
       <c r="M20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O20" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1061,25 +1225,33 @@
       <c r="F21" t="n">
         <v>2.0</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.0</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O21" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -1106,27 +1278,35 @@
         <v>1002.0</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>4.0</v>
       </c>
       <c r="I22" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O22" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1153,10 +1333,12 @@
         <v>1025.0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>3.0</v>
@@ -1174,6 +1356,12 @@
         <v>3.0</v>
       </c>
       <c r="M23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O23" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1200,27 +1388,35 @@
         <v>1026.0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J24" t="n">
         <v>1.0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L24" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1247,10 +1443,12 @@
         <v>1010.0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>5.0</v>
@@ -1259,15 +1457,21 @@
         <v>5.0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O25" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -1294,10 +1498,12 @@
         <v>1010.0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>5.0</v>
@@ -1306,22 +1512,28 @@
         <v>5.0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O26" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ettiswil</t>
+          <t>Escholzmatt-Marbach</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1331,44 +1543,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ettiswil</t>
+          <t>Marbach (LU) XXX</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1128.0</v>
+        <v>1010.0</v>
       </c>
       <c r="F27" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="I27" t="n">
         <v>5.0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M27" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fischbach</t>
+          <t>Ettiswil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1378,23 +1598,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fischbach</t>
+          <t>Ettiswil</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1129.0</v>
+        <v>1128.0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I28" t="n">
         <v>3.0</v>
@@ -1403,19 +1625,25 @@
         <v>3.0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M28" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Flühli</t>
+          <t>Fischbach</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1425,20 +1653,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Flühli</t>
+          <t>Fischbach</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1004.0</v>
+        <v>1129.0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>3.0</v>
@@ -1456,13 +1686,19 @@
         <v>3.0</v>
       </c>
       <c r="M29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O29" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gettnau</t>
+          <t>Flühli</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1472,20 +1708,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gettnau</t>
+          <t>Flühli</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1130.0</v>
+        <v>1004.0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>3.0</v>
@@ -1503,13 +1741,19 @@
         <v>3.0</v>
       </c>
       <c r="M30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O30" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Geuensee</t>
+          <t>Gettnau</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1519,44 +1763,52 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geuensee</t>
+          <t>Gettnau</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1085.0</v>
+        <v>1130.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K31" t="n">
         <v>3.0</v>
       </c>
       <c r="L31" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gisikon</t>
+          <t>Geuensee</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1566,44 +1818,52 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gisikon</t>
+          <t>Geuensee</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1055.0</v>
+        <v>1085.0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>3.0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K32" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L32" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M32" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Greppen</t>
+          <t>Gisikon</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1613,20 +1873,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Greppen</t>
+          <t>Gisikon</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1056.0</v>
+        <v>1055.0</v>
       </c>
       <c r="F33" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>3.0</v>
@@ -1644,13 +1906,19 @@
         <v>3.0</v>
       </c>
       <c r="M33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O33" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Grossdietwil</t>
+          <t>Greppen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1660,20 +1928,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Grossdietwil</t>
+          <t>Greppen</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
       </c>
       <c r="E34" t="n">
-        <v>1131.0</v>
+        <v>1056.0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>3.0</v>
@@ -1691,13 +1961,19 @@
         <v>3.0</v>
       </c>
       <c r="M34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O34" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Grosswangen</t>
+          <t>Grossdietwil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1707,44 +1983,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Grosswangen</t>
+          <t>Grossdietwil</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.0</v>
+        <v>1131.0</v>
       </c>
       <c r="F35" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>3.0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K35" t="n">
         <v>3.0</v>
       </c>
       <c r="L35" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="M35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O35" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hasle (LU)</t>
+          <t>Grosswangen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1754,20 +2038,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hasle (LU)</t>
+          <t>Grosswangen</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>1.0</v>
       </c>
       <c r="E36" t="n">
-        <v>1005.0</v>
+        <v>1086.0</v>
       </c>
       <c r="F36" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>3.0</v>
@@ -1779,19 +2065,25 @@
         <v>3.0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L36" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O36" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hergiswil bei Willisau</t>
+          <t>Hasle (LU)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1801,20 +2093,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hergiswil bei Willisau</t>
+          <t>Hasle (LU)</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1132.0</v>
+        <v>1005.0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>3.0</v>
@@ -1832,13 +2126,19 @@
         <v>3.0</v>
       </c>
       <c r="M37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O37" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hildisrieden</t>
+          <t>Hergiswil bei Willisau</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1848,44 +2148,52 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hildisrieden</t>
+          <t>Hergiswil bei Willisau</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1088.0</v>
+        <v>1132.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L38" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hitzkirch</t>
+          <t>Hildisrieden</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1895,44 +2203,52 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hitzkirch</t>
+          <t>Hildisrieden</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1030.0</v>
+        <v>1088.0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J39" t="n">
         <v>1.0</v>
       </c>
       <c r="K39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L39" t="n">
         <v>1.0</v>
       </c>
       <c r="M39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hochdorf</t>
+          <t>Hitzkirch</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1942,44 +2258,52 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hochdorf</t>
+          <t>Hitzkirch</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1031.0</v>
+        <v>1030.0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M40" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hohenrain</t>
+          <t>Hochdorf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1989,44 +2313,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hohenrain</t>
+          <t>Hochdorf</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1032.0</v>
+        <v>1031.0</v>
       </c>
       <c r="F41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K41" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M41" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Honau</t>
+          <t>Hohenrain</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2036,44 +2368,52 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Honau</t>
+          <t>Hohenrain</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1057.0</v>
+        <v>1032.0</v>
       </c>
       <c r="F42" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K42" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L42" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O42" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Horw</t>
+          <t>Honau</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2083,20 +2423,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Horw</t>
+          <t>Honau</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1058.0</v>
+        <v>1057.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H43" t="n">
         <v>3.0</v>
@@ -2105,22 +2447,28 @@
         <v>3.0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L43" t="n">
         <v>3.0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Inwil</t>
+          <t>Horw</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2130,44 +2478,52 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Inwil</t>
+          <t>Horw</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1033.0</v>
+        <v>1058.0</v>
       </c>
       <c r="F44" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L44" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Knutwil</t>
+          <t>Inwil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2177,44 +2533,52 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Knutwil</t>
+          <t>Inwil</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1089.0</v>
+        <v>1033.0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L45" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M45" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kriens</t>
+          <t>Knutwil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2224,44 +2588,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kriens</t>
+          <t>Knutwil</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1059.0</v>
+        <v>1089.0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L46" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luthern</t>
+          <t>Kriens</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2271,20 +2643,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Luthern</t>
+          <t>Kriens</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1135.0</v>
+        <v>1059.0</v>
       </c>
       <c r="F47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H47" t="n">
         <v>3.0</v>
@@ -2293,22 +2667,28 @@
         <v>3.0</v>
       </c>
       <c r="J47" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K47" t="n">
         <v>3.0</v>
       </c>
       <c r="L47" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M47" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Luthern</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2318,44 +2698,52 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Luthern</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>1.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1061.0</v>
+        <v>1135.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Malters</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2365,44 +2753,52 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Malters</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1062.0</v>
+        <v>1061.0</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Stadt Luzern</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K49" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L49" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="M49" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mauensee</t>
+          <t>Malters</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2412,44 +2808,52 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mauensee</t>
+          <t>Malters</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>1.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1091.0</v>
+        <v>1062.0</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
       </c>
-      <c r="G50" t="n">
-        <v>3.0</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H50" t="n">
         <v>3.0</v>
       </c>
       <c r="I50" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K50" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L50" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M50" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Meggen</t>
+          <t>Mauensee</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2459,44 +2863,52 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Meggen</t>
+          <t>Mauensee</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>1.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1063.0</v>
+        <v>1091.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I51" t="n">
         <v>3.0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K51" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L51" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Meierskappel</t>
+          <t>Meggen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2506,44 +2918,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Meierskappel</t>
+          <t>Meggen</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>1.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1064.0</v>
+        <v>1063.0</v>
       </c>
       <c r="F52" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K52" t="n">
         <v>3.0</v>
       </c>
       <c r="L52" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Menznau</t>
+          <t>Meierskappel</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2553,44 +2973,52 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Menznau</t>
+          <t>Meierskappel</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1136.0</v>
+        <v>1064.0</v>
       </c>
       <c r="F53" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="I53" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K53" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L53" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="M53" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nebikon</t>
+          <t>Menznau</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2600,44 +3028,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nebikon</t>
+          <t>Menznau</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1137.0</v>
+        <v>1136.0</v>
       </c>
       <c r="F54" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I54" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K54" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L54" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M54" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Neuenkirch</t>
+          <t>Nebikon</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2647,44 +3083,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Neuenkirch</t>
+          <t>Nebikon</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>1.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1093.0</v>
+        <v>1137.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I55" t="n">
         <v>4.0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K55" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L55" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M55" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nottwil</t>
+          <t>Neuenkirch</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2694,44 +3138,52 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nottwil</t>
+          <t>Neuenkirch</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1094.0</v>
+        <v>1093.0</v>
       </c>
       <c r="F56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H56" t="n">
         <v>1.0</v>
       </c>
       <c r="I56" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J56" t="n">
         <v>1.0</v>
       </c>
       <c r="K56" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L56" t="n">
         <v>1.0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Oberkirch</t>
+          <t>Nottwil</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2741,44 +3193,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Oberkirch</t>
+          <t>Nottwil</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1095.0</v>
+        <v>1094.0</v>
       </c>
       <c r="F57" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I57" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J57" t="n">
         <v>1.0</v>
       </c>
       <c r="K57" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L57" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O57" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pfaffnau</t>
+          <t>Oberkirch</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2788,44 +3248,52 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pfaffnau</t>
+          <t>Oberkirch</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1139.0</v>
+        <v>1095.0</v>
       </c>
       <c r="F58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I58" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J58" t="n">
         <v>1.0</v>
       </c>
       <c r="K58" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L58" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M58" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Pfaffnau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2835,44 +3303,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Pfaffnau</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1037.0</v>
+        <v>1139.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I59" t="n">
         <v>4.0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K59" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L59" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M59" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Reiden</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2882,44 +3358,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Reiden</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1140.0</v>
+        <v>1037.0</v>
       </c>
       <c r="F60" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I60" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J60" t="n">
         <v>1.0</v>
       </c>
       <c r="K60" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L60" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M60" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rickenbach (LU)</t>
+          <t>Reiden</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2929,44 +3413,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rickenbach (LU)</t>
+          <t>Reiden</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
       </c>
       <c r="E61" t="n">
-        <v>1097.0</v>
+        <v>1140.0</v>
       </c>
       <c r="F61" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I61" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K61" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L61" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M61" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Roggliswil</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2976,44 +3468,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Roggliswil</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
       </c>
       <c r="E62" t="n">
-        <v>1142.0</v>
+        <v>1097.0</v>
       </c>
       <c r="F62" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I62" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K62" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L62" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M62" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Romoos</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3023,44 +3523,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Romoos</t>
+          <t>Pfeffikon XXX</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E63" t="n">
-        <v>1007.0</v>
+        <v>1097.0</v>
       </c>
       <c r="F63" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I63" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J63" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K63" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L63" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M63" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Root</t>
+          <t>Roggliswil</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3070,44 +3578,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Root</t>
+          <t>Roggliswil</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1065.0</v>
+        <v>1142.0</v>
       </c>
       <c r="F64" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I64" t="n">
         <v>3.0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K64" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L64" t="n">
         <v>3.0</v>
       </c>
       <c r="M64" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rothenburg</t>
+          <t>Romoos</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3117,44 +3633,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rothenburg</t>
+          <t>Romoos</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
       </c>
       <c r="E65" t="n">
-        <v>1040.0</v>
+        <v>1007.0</v>
       </c>
       <c r="F65" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I65" t="n">
         <v>3.0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K65" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L65" t="n">
         <v>3.0</v>
       </c>
       <c r="M65" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ruswil</t>
+          <t>Root</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3164,44 +3688,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ruswil</t>
+          <t>Root</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1098.0</v>
+        <v>1065.0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H66" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K66" t="n">
         <v>3.0</v>
       </c>
       <c r="L66" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M66" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Römerswil</t>
+          <t>Rothenburg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3211,44 +3743,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Römerswil</t>
+          <t>Rothenburg</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>1.0</v>
       </c>
       <c r="E67" t="n">
-        <v>1039.0</v>
+        <v>1040.0</v>
       </c>
       <c r="F67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I67" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K67" t="n">
         <v>3.0</v>
       </c>
       <c r="L67" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M67" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Schenkon</t>
+          <t>Ruswil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3258,44 +3798,52 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Schenkon</t>
+          <t>Ruswil</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1099.0</v>
+        <v>1098.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I68" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K68" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="L68" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M68" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Schlierbach</t>
+          <t>Römerswil</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3305,20 +3853,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Schlierbach</t>
+          <t>Römerswil</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>1.0</v>
       </c>
       <c r="E69" t="n">
-        <v>1100.0</v>
+        <v>1039.0</v>
       </c>
       <c r="F69" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H69" t="n">
         <v>3.0</v>
@@ -3336,13 +3886,19 @@
         <v>3.0</v>
       </c>
       <c r="M69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O69" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Schongau</t>
+          <t>Schenkon</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3352,44 +3908,52 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Schongau</t>
+          <t>Schenkon</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
       </c>
       <c r="E70" t="n">
-        <v>1041.0</v>
+        <v>1099.0</v>
       </c>
       <c r="F70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I70" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K70" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L70" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M70" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Schwarzenberg</t>
+          <t>Schlierbach</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3399,20 +3963,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Schwarzenberg</t>
+          <t>Schlierbach</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
       </c>
       <c r="E71" t="n">
-        <v>1066.0</v>
+        <v>1100.0</v>
       </c>
       <c r="F71" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H71" t="n">
         <v>3.0</v>
@@ -3430,13 +3996,19 @@
         <v>3.0</v>
       </c>
       <c r="M71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O71" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Schötz</t>
+          <t>Schongau</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3446,44 +4018,52 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Schötz</t>
+          <t>Schongau</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>1.0</v>
       </c>
       <c r="E72" t="n">
-        <v>1143.0</v>
+        <v>1041.0</v>
       </c>
       <c r="F72" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H72" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I72" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K72" t="n">
         <v>3.0</v>
       </c>
       <c r="L72" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="M72" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Schüpfheim</t>
+          <t>Schwarzenberg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3493,44 +4073,52 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Schüpfheim</t>
+          <t>Schwarzenberg</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
       </c>
       <c r="E73" t="n">
-        <v>1008.0</v>
+        <v>1066.0</v>
       </c>
       <c r="F73" t="n">
         <v>3.0</v>
       </c>
-      <c r="G73" t="n">
-        <v>2.0</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H73" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I73" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K73" t="n">
         <v>3.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="M73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O73" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sempach</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3540,44 +4128,52 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sempach</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
       </c>
       <c r="E74" t="n">
-        <v>1102.0</v>
+        <v>1143.0</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H74" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I74" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K74" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L74" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M74" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sursee</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3587,44 +4183,52 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sursee</t>
+          <t>Ohmstal XXX</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E75" t="n">
-        <v>1103.0</v>
+        <v>1143.0</v>
       </c>
       <c r="F75" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H75" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I75" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K75" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L75" t="n">
         <v>1.0</v>
       </c>
       <c r="M75" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Triengen</t>
+          <t>Schüpfheim</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3634,44 +4238,52 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Triengen</t>
+          <t>Schüpfheim</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1104.0</v>
+        <v>1008.0</v>
       </c>
       <c r="F76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H76" t="n">
         <v>3.0</v>
       </c>
       <c r="I76" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K76" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L76" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O76" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Udligenswil</t>
+          <t>Sempach</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3681,44 +4293,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Udligenswil</t>
+          <t>Sempach</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1067.0</v>
+        <v>1102.0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H77" t="n">
         <v>1.0</v>
       </c>
       <c r="I77" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K77" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L77" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O77" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ufhusen</t>
+          <t>Sursee</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3728,44 +4348,52 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ufhusen</t>
+          <t>Sursee</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1145.0</v>
+        <v>1103.0</v>
       </c>
       <c r="F78" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H78" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I78" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J78" t="n">
         <v>3.0</v>
       </c>
       <c r="K78" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L78" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M78" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Vitznau</t>
+          <t>Triengen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3775,44 +4403,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Vitznau</t>
+          <t>Triengen</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1068.0</v>
+        <v>1104.0</v>
       </c>
       <c r="F79" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
       <c r="H79" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I79" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J79" t="n">
         <v>3.0</v>
       </c>
       <c r="K79" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L79" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O79" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wauwil</t>
+          <t>Udligenswil</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3822,26 +4458,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wauwil</t>
+          <t>Udligenswil</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>1.0</v>
       </c>
       <c r="E80" t="n">
-        <v>1146.0</v>
+        <v>1067.0</v>
       </c>
       <c r="F80" t="n">
         <v>3.0</v>
       </c>
-      <c r="G80" t="n">
-        <v>3.0</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H80" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I80" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J80" t="n">
         <v>1.0</v>
@@ -3850,16 +4488,22 @@
         <v>3.0</v>
       </c>
       <c r="L80" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M80" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Weggis</t>
+          <t>Ufhusen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3869,44 +4513,52 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Weggis</t>
+          <t>Ufhusen</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>1.0</v>
       </c>
       <c r="E81" t="n">
-        <v>1069.0</v>
+        <v>1145.0</v>
       </c>
       <c r="F81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H81" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I81" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K81" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L81" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M81" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Werthenstein</t>
+          <t>Vitznau</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3916,44 +4568,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Werthenstein</t>
+          <t>Vitznau</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>1.0</v>
       </c>
       <c r="E82" t="n">
-        <v>1009.0</v>
+        <v>1068.0</v>
       </c>
       <c r="F82" t="n">
         <v>4.0</v>
       </c>
-      <c r="G82" t="n">
-        <v>3.0</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H82" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I82" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K82" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L82" t="n">
         <v>3.0</v>
       </c>
       <c r="M82" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wikon</t>
+          <t>Wauwil</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3963,20 +4623,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wikon</t>
+          <t>Wauwil</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>1.0</v>
       </c>
       <c r="E83" t="n">
-        <v>1147.0</v>
+        <v>1146.0</v>
       </c>
       <c r="F83" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H83" t="n">
         <v>3.0</v>
@@ -3988,19 +4650,25 @@
         <v>3.0</v>
       </c>
       <c r="K83" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L83" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M83" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Willisau</t>
+          <t>Weggis</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4010,44 +4678,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Willisau</t>
+          <t>Weggis</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
       </c>
       <c r="E84" t="n">
-        <v>1151.0</v>
+        <v>1069.0</v>
       </c>
       <c r="F84" t="n">
         <v>4.0</v>
       </c>
-      <c r="G84" t="n">
-        <v>4.0</v>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H84" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I84" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J84" t="n">
         <v>1.0</v>
       </c>
       <c r="K84" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L84" t="n">
         <v>2.0</v>
       </c>
       <c r="M84" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wolhusen</t>
+          <t>Werthenstein</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4057,84 +4733,265 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Wolhusen</t>
+          <t>Werthenstein</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
       </c>
       <c r="E85" t="n">
-        <v>1107.0</v>
+        <v>1009.0</v>
       </c>
       <c r="F85" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
       </c>
       <c r="H85" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I85" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K85" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L85" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M85" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>Wikon</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wikon</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wolhusen</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wolhusen</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>Zell (LU)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>Zell (LU)</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="D89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E89" t="n">
         <v>1150.0</v>
       </c>
-      <c r="F86" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M86" t="n">
+      <c r="F89" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O89" t="n">
         <v>4.0</v>
       </c>
     </row>
